--- a/mini-curso-notafiscal/sala/aula-03/Aula3-Tabela Geral de Aliquotas de ICMS.xlsx
+++ b/mini-curso-notafiscal/sala/aula-03/Aula3-Tabela Geral de Aliquotas de ICMS.xlsx
@@ -18,13 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
-    <t xml:space="preserve">TABELA GERAL DE ICMS </t>
+    <t>TABELA GERAL DE ICMS</t>
   </si>
   <si>
     <t>DESTINO</t>
   </si>
   <si>
-    <t>*vigente a partir de 13/03/2023</t>
+    <t>*vigente a partir de 27/01/2024</t>
   </si>
   <si>
     <t>AC</t>
@@ -165,7 +165,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -365,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -379,7 +378,7 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -390,10 +389,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,7 +416,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,7 +431,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -442,7 +441,7 @@
     <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,34 +454,37 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="11" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="3" fillId="12" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -503,12 +505,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1314450" cy="1314450"/>
+    <xdr:ext cx="1285875" cy="1285875"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Imagem"/>
@@ -1724,8 +1726,8 @@
       <c r="H16" s="21">
         <v>12.0</v>
       </c>
-      <c r="I16" s="33">
-        <v>18.0</v>
+      <c r="I16" s="37">
+        <v>20.0</v>
       </c>
       <c r="J16" s="21">
         <v>12.0</v>
@@ -1803,10 +1805,10 @@
       <c r="AI16" s="21">
         <v>8.0</v>
       </c>
-      <c r="AJ16" s="37" t="s">
+      <c r="AJ16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AK16" s="38" t="str">
+      <c r="AK16" s="25" t="str">
         <f>(VLOOKUP(AK11,C:AE,VLOOKUP(AK13,AH:AI,2,0),0))&amp;" %"</f>
         <v>12 %</v>
       </c>
@@ -1836,8 +1838,8 @@
       <c r="I17" s="21">
         <v>12.0</v>
       </c>
-      <c r="J17" s="33">
-        <v>18.0</v>
+      <c r="J17" s="37">
+        <v>20.0</v>
       </c>
       <c r="K17" s="21">
         <v>12.0</v>
@@ -2678,8 +2680,8 @@
       <c r="Q25" s="21">
         <v>12.0</v>
       </c>
-      <c r="R25" s="33">
-        <v>18.0</v>
+      <c r="R25" s="37">
+        <v>20.0</v>
       </c>
       <c r="S25" s="21">
         <v>12.0</v>
@@ -2888,8 +2890,8 @@
       <c r="S27" s="21">
         <v>12.0</v>
       </c>
-      <c r="T27" s="33">
-        <v>18.0</v>
+      <c r="T27" s="37">
+        <v>20.5</v>
       </c>
       <c r="U27" s="21">
         <v>12.0</v>
@@ -3098,8 +3100,8 @@
       <c r="U29" s="21">
         <v>12.0</v>
       </c>
-      <c r="V29" s="31">
-        <v>20.0</v>
+      <c r="V29" s="41">
+        <v>18.0</v>
       </c>
       <c r="W29" s="21">
         <v>12.0</v>
@@ -3203,7 +3205,7 @@
       <c r="V30" s="21">
         <v>7.0</v>
       </c>
-      <c r="W30" s="41">
+      <c r="W30" s="42">
         <v>17.0</v>
       </c>
       <c r="X30" s="21">
@@ -3413,8 +3415,8 @@
       <c r="X32" s="21">
         <v>12.0</v>
       </c>
-      <c r="Y32" s="42">
-        <v>17.5</v>
+      <c r="Y32" s="43">
+        <v>19.5</v>
       </c>
       <c r="Z32" s="21">
         <v>12.0</v>
@@ -3518,7 +3520,7 @@
       <c r="Y33" s="21">
         <v>12.0</v>
       </c>
-      <c r="Z33" s="43">
+      <c r="Z33" s="44">
         <v>20.0</v>
       </c>
       <c r="AA33" s="21">
@@ -3623,7 +3625,7 @@
       <c r="Z34" s="21">
         <v>7.0</v>
       </c>
-      <c r="AA34" s="44">
+      <c r="AA34" s="45">
         <v>17.0</v>
       </c>
       <c r="AB34" s="21">
@@ -3833,7 +3835,7 @@
       <c r="AB36" s="21">
         <v>12.0</v>
       </c>
-      <c r="AC36" s="45">
+      <c r="AC36" s="46">
         <v>22.0</v>
       </c>
       <c r="AD36" s="21">
@@ -3938,7 +3940,7 @@
       <c r="AC37" s="21">
         <v>12.0</v>
       </c>
-      <c r="AD37" s="43">
+      <c r="AD37" s="44">
         <v>20.0</v>
       </c>
       <c r="AE37" s="21">
@@ -4046,16 +4048,16 @@
       <c r="AE38" s="17"/>
       <c r="AF38" s="10"/>
       <c r="AG38" s="1"/>
-      <c r="AH38" s="46"/>
-      <c r="AI38" s="46"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="47"/>
       <c r="AJ38" s="3"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="4"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -4086,8 +4088,8 @@
       <c r="AE39" s="22"/>
       <c r="AF39" s="10"/>
       <c r="AG39" s="1"/>
-      <c r="AH39" s="46"/>
-      <c r="AI39" s="46"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="47"/>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="4"/>
